--- a/differences_6_0.75.xlsx
+++ b/differences_6_0.75.xlsx
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.101</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.162</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.109</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1960000000000001</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -619,13 +619,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.118</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.02599999999999991</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06600000000000006</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.131</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.09100000000000003</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.123</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -745,13 +745,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04799999999999993</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.06100000000000005</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>-0.068</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1699999999999999</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -849,13 +849,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.112</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01900000000000002</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1679999999999999</v>
+        <v>0.02400000000000002</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.04999999999999999</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -938,16 +938,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.07799999999999996</v>
+        <v>0.07300000000000006</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.141</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.08399999999999996</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -981,16 +981,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>-0.05499999999999994</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.002000000000000002</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.114</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1045,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.002000000000000002</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.09900000000000009</v>
+        <v>0.04799999999999993</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.02100000000000002</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1116,16 +1116,16 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>-0.002000000000000002</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>-0.02600000000000002</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.07099999999999995</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.04300000000000004</v>
+        <v>0.03899999999999998</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1171,10 +1171,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.153</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.07800000000000001</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.118</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01899999999999996</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>-0.02899999999999997</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>-0.05399999999999994</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.03299999999999997</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.07600000000000001</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08099999999999996</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>4.16875</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -1343,13 +1343,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.05799999999999994</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.04800000000000004</v>
+        <v>-0.06499999999999995</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.02700000000000002</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -1401,10 +1401,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.09700000000000009</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.057</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-0.07899999999999996</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.04199999999999993</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.03900000000000003</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -1478,13 +1478,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.02800000000000002</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1493,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>0.02100000000000002</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>-0.01200000000000001</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.007999999999999952</v>
+        <v>0.02999999999999997</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.04200000000000004</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.104</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.06400000000000006</v>
+        <v>-0.03999999999999992</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>-0.103</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -1671,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.06100000000000005</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.08599999999999997</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1717,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.07399999999999995</v>
+        <v>-0.04800000000000004</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -1772,13 +1772,13 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.108</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.07200000000000001</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.02699999999999997</v>
+        <v>0.09600000000000003</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.06900000000000006</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.03199999999999992</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.113</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.04700000000000004</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.001000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-0.04499999999999998</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.08299999999999996</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.009000000000000008</v>
+        <v>0.004000000000000004</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.08499999999999996</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1993,19 +1993,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-0.04599999999999993</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.126</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-0.01600000000000001</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -2039,10 +2039,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.06600000000000006</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.02600000000000002</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -2085,16 +2085,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>-0.02400000000000002</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.1669999999999999</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.02400000000000002</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.06500000000000006</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.01600000000000001</v>
+        <v>0.09600000000000003</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.05800000000000005</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -2186,13 +2186,13 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.04799999999999999</v>
       </c>
       <c r="I38" t="n">
-        <v>0.03600000000000003</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.05499999999999999</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -2232,13 +2232,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>0.08899999999999997</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.07900000000000001</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.08200000000000007</v>
+        <v>-0.03599999999999992</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-0.063</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -2309,13 +2309,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.03900000000000003</v>
+        <v>-0.04099999999999993</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>0.03899999999999998</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -2361,13 +2361,13 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>-0.05799999999999994</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.05899999999999994</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2407,13 +2407,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.03699999999999992</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.114</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2428,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0.01500000000000001</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-0.07099999999999995</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0.03200000000000003</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -2493,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.05599999999999994</v>
+        <v>-0.101</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.04500000000000004</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>-0.04599999999999999</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.135</v>
+        <v>0.09200000000000003</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -2588,10 +2588,10 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.02600000000000002</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.08199999999999996</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>0.07499999999999996</v>
       </c>
       <c r="K47" t="n">
         <v>0</v>
@@ -2637,13 +2637,13 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.02799999999999991</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.108</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>0.02600000000000002</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
@@ -2683,7 +2683,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.102</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.01299999999999996</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.04900000000000004</v>
+        <v>0.07399999999999995</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2744,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.09600000000000003</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
         <v>0</v>
@@ -2772,16 +2772,16 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>0.03999999999999998</v>
       </c>
       <c r="E51" t="n">
-        <v>0.06299999999999994</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>0.07799999999999996</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>-0.04199999999999993</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
@@ -2830,13 +2830,13 @@
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>-0.05499999999999999</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>-0.02700000000000002</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.05199999999999999</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
         <v>0</v>
@@ -2861,13 +2861,13 @@
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.04099999999999993</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0.03800000000000003</v>
+        <v>-0.06899999999999995</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
@@ -2879,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>-0.03500000000000003</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>0.03099999999999992</v>
+        <v>0</v>
       </c>
       <c r="D54" t="n">
         <v>0</v>
@@ -2928,13 +2928,13 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>0.08699999999999997</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>0.05099999999999999</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>0.02599999999999997</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.06900000000000006</v>
+        <v>0.05599999999999994</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.09499999999999997</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
@@ -3045,13 +3045,13 @@
         <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>-0.05200000000000005</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>-0.0149999999999999</v>
       </c>
       <c r="F57" t="n">
         <v>0</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>-0.11</v>
+        <v>0</v>
       </c>
       <c r="K57" t="n">
         <v>0</v>
@@ -3103,7 +3103,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3115,10 +3115,10 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.01499999999999996</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>-0.03799999999999998</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -3140,16 +3140,16 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.04400000000000004</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>-0.03699999999999992</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.08700000000000008</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -3204,13 +3204,13 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>0.134</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>0.03899999999999998</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.09700000000000009</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -3250,10 +3250,10 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>0.03899999999999998</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.003000000000000003</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>0.1859999999999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.06099999999999994</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
         <v>0</v>
@@ -3342,7 +3342,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -3379,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>0.08900000000000008</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
         <v>0</v>
@@ -3425,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.1779999999999999</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>-0.062</v>
+        <v>0.117</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>0.07300000000000006</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>0.09699999999999998</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -3563,10 +3563,10 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>0.09499999999999997</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>0.04999999999999999</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.02599999999999991</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -3612,13 +3612,13 @@
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>0.059</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>0.108</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -3655,10 +3655,10 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>0.117</v>
       </c>
       <c r="H70" t="n">
-        <v>-0.04899999999999999</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -3701,10 +3701,10 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.08699999999999997</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>0.122</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -3741,16 +3741,16 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.04799999999999993</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>0.07599999999999996</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>0.02399999999999997</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>0.07599999999999996</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.02300000000000002</v>
+        <v>0.148</v>
       </c>
       <c r="H73" t="n">
-        <v>-0.01600000000000001</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>0.06700000000000006</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -3839,10 +3839,10 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>0.07499999999999996</v>
       </c>
       <c r="H74" t="n">
-        <v>-0.01399999999999996</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="L74" t="n">
         <v>0</v>
@@ -3873,13 +3873,13 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0.07099999999999995</v>
+        <v>-0.05200000000000005</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>-0.05199999999999994</v>
       </c>
       <c r="F75" t="n">
         <v>0</v>
@@ -3931,10 +3931,10 @@
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>0.08499999999999996</v>
       </c>
       <c r="H76" t="n">
-        <v>-0.04699999999999999</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -3965,13 +3965,13 @@
         <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>-0.07500000000000007</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>-0.06599999999999995</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
@@ -4017,13 +4017,13 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>-0.05499999999999994</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.08300000000000007</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -4035,7 +4035,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>-0.03200000000000003</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>0</v>
@@ -4069,16 +4069,16 @@
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>-0.04599999999999993</v>
+        <v>0.05300000000000005</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>0.128</v>
       </c>
       <c r="K79" t="n">
         <v>0</v>
@@ -4103,19 +4103,19 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="D80" t="n">
-        <v>0.065</v>
+        <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0.07199999999999995</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>0.136</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -4161,10 +4161,10 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>0.1769999999999999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>0.05099999999999999</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -4207,13 +4207,13 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.08699999999999997</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>0.03599999999999998</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>0.01900000000000002</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05400000000000005</v>
+        <v>0</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
@@ -4247,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0.04200000000000004</v>
+        <v>-0.07199999999999995</v>
       </c>
       <c r="F83" t="n">
         <v>0</v>
@@ -4259,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>-0.02800000000000002</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>0.1920000000000001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -4330,7 +4330,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.07900000000000007</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -4339,13 +4339,13 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0.05099999999999993</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>0.1100000000000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -4379,13 +4379,13 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>-0.102</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>-0.03899999999999992</v>
       </c>
       <c r="F86" t="n">
         <v>0</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="L86" t="n">
-        <v>0.08000000000000002</v>
+        <v>0</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>-0.02800000000000002</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -4437,13 +4437,13 @@
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>0.08200000000000007</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0.03099999999999992</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -4452,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>0.03800000000000003</v>
+        <v>0</v>
       </c>
       <c r="M87" t="n">
         <v>0</v>
@@ -4483,13 +4483,13 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>0.102</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>0.09799999999999998</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>0.151</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.03699999999999998</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -4575,7 +4575,7 @@
         <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>0.111</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4621,7 +4621,7 @@
         <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>0.02200000000000002</v>
+        <v>0</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
@@ -4661,7 +4661,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0.005000000000000004</v>
+        <v>-0.07100000000000006</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
@@ -4682,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>0.128</v>
+        <v>0</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -4719,10 +4719,10 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>0.101</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>0.142</v>
       </c>
       <c r="K93" t="n">
         <v>0</v>
@@ -4759,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>0.07899999999999996</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4774,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="L94" t="n">
-        <v>0.059</v>
+        <v>0</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
@@ -4805,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.03500000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4839,13 +4839,13 @@
         <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>0.05799999999999994</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>-0.04899999999999993</v>
       </c>
       <c r="F96" t="n">
         <v>0</v>
@@ -4863,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>-0.08500000000000002</v>
       </c>
       <c r="L96" t="n">
         <v>0</v>
@@ -4897,13 +4897,13 @@
         <v>0</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>0.167</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>0.03400000000000003</v>
       </c>
       <c r="J97" t="n">
         <v>0</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.03700000000000003</v>
+        <v>0.101</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4989,7 +4989,7 @@
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>0.114</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -5035,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>0.153</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -5072,16 +5072,16 @@
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>-0.01800000000000002</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>-0.05400000000000005</v>
       </c>
       <c r="F101" t="n">
         <v>0</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06100000000000005</v>
+        <v>0</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
